--- a/ExcelFiles/Skill.xlsx
+++ b/ExcelFiles/Skill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
   <si>
     <t>int</t>
   </si>
@@ -99,7 +99,7 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":1,
@@ -164,7 +164,7 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -227,7 +227,7 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-110,
         "affactedAniNum":2,
@@ -289,7 +289,7 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":2,
@@ -348,7 +348,7 @@
         "attackType":4,
         "attackValue":0.00015,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-90,
         "affactedAniNum":1,
@@ -413,7 +413,7 @@
         "attackType":1,
         "attackValue":0.00015,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-155,
         "affactedAniNum":2,
@@ -475,7 +475,7 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":1,
@@ -493,7 +493,7 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":2,
@@ -555,7 +555,7 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":2,
@@ -573,7 +573,7 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -632,7 +632,7 @@
         "attackType":1,
         "attackValue":0.0001,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":1,
@@ -650,7 +650,7 @@
         "attackType":1,
         "attackValue":0.0001,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -712,7 +712,7 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":2,
@@ -774,7 +774,7 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-80,
         "affactedAniNum":2,
@@ -794,7 +794,7 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-90,
         "affactedAniNum":2,
@@ -814,7 +814,7 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-105,
         "affactedAniNum":1,
@@ -834,7 +834,7 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-90,
         "affactedAniNum":1,
@@ -854,7 +854,7 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-105,
         "affactedAniNum":2,
@@ -874,7 +874,7 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-90,
         "affactedAniNum":2,
@@ -894,7 +894,7 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -956,7 +956,7 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":1,
@@ -974,7 +974,7 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-90,
         "affactedAniNum":1,
@@ -992,7 +992,7 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-110,
         "affactedAniNum":2,
@@ -1010,7 +1010,7 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-90,
         "affactedAniNum":2,
@@ -1028,7 +1028,7 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -1131,48 +1131,16 @@
     <t>alpha进入核心被动</t>
   </si>
   <si>
-    <t>Enter_Core</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frame":11,
-        "moveSpeed":null,
-        "sameDiremoveSpeed":null,
-        "oppositeDiremoveSpeed":null
-    },
-    "2":{
-        "stageType":2,
-        "frame":24,
-        "attackType":1,
-        "attackValue":0,
-        "rigidityTime":0.3,
-        "hitPower":"0:0",
-        "powerType":1,
-        "hitEffectAngle":-135,
-        "affactedAniNum":1,
-        "freezeTime":0.04,
-        "shockScreen":null,
-        "shockScreenTiming":1,
-        "effectOrder":null,
-        "moveSpeed":null,
-        "sameDiremoveSpeed":null,
-        "oppositeDiremoveSpeed":null
-    },
-    "3":{
+    <t>BackDodge</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
         "stageType":3,
-        "frame":27,
-        "moveSpeed":null,
-        "sameDiremoveSpeed":null,
-        "oppositeDiremoveSpeed":null
-    },
-    "4":{
-        "stageType":4,
-        "frame":34,
-        "moveSpeed":null,
-        "sameDiremoveSpeed":null,
-        "oppositeDiremoveSpeed":null
+        "frame":30,
+        "moveSpeed":"-14:0",
+        "sameDiremoveSpeed":"-14:0",
+        "oppositeDiremoveSpeed":"-14:0"
     }
 }</t>
   </si>
@@ -1200,7 +1168,7 @@
         "attackType":3,
         "attackValue":0.00035,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -1229,7 +1197,7 @@
 }</t>
   </si>
   <si>
-    <t>30</t>
+    <t>35</t>
   </si>
   <si>
     <t>{
@@ -1240,7 +1208,7 @@
     },
     "2":{
         "prefabName":"alpha_Skill_Core_Slash",
-        "animationName":"Slash_1",
+        "animationName":"Slash_1_EarlyWait",
         "type":3,
         "attackBox":true
     }
@@ -1264,7 +1232,7 @@
     },
     "2":{
         "prefabName":"alpha_Skill_Core_Slash",
-        "animationName":"Slash_3",
+        "animationName":"Slash_3_EarlyWait",
         "type":3,
         "attackBox":true
     }
@@ -1294,7 +1262,7 @@
         "attackType":3,
         "attackValue":0.00035,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":2,
@@ -1331,7 +1299,7 @@
     },
     "2":{
         "prefabName":"alpha_Skill_Core_Slash",
-        "animationName":"Slash_2",
+        "animationName":"Slash_2_EarlyWait",
         "type":3,
         "attackBox":true
     }
@@ -1358,7 +1326,7 @@
         "attackType":3,
         "attackValue":0.00035,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-45,
         "affactedAniNum":2,
@@ -1395,7 +1363,7 @@
     },
     "2":{
         "prefabName":"alpha_Skill_Core_Slash",
-        "animationName":"Slash_4",
+        "animationName":"Slash_4_EarlyWait",
         "type":3,
         "attackBox":true
     }
@@ -1422,7 +1390,7 @@
         "attackType":1,
         "attackValue":2.5,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -1466,35 +1434,24 @@
 }</t>
   </si>
   <si>
+    <t>前闪避</t>
+  </si>
+  <si>
+    <t>ForwardDodge</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "stageType":3,
+        "frame":14,
+        "moveSpeed":"25:0",
+        "sameDiremoveSpeed":"25:0",
+        "oppositeDiremoveSpeed":"25:0"
+    }
+}</t>
+  </si>
+  <si>
     <t>后闪避</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":3,
-        "frame":30,
-        "moveSpeed":"-14:0",
-        "sameDiremoveSpeed":"-14:0",
-        "oppositeDiremoveSpeed":"-14:0"
-    }
-}</t>
-  </si>
-  <si>
-    <t>前闪避</t>
-  </si>
-  <si>
-    <t>ForwardDodge</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":3,
-        "frame":40,
-        "moveSpeed":"14:0",
-        "sameDiremoveSpeed":"14:0",
-        "oppositeDiremoveSpeed":"14:0"
-    }
-}</t>
   </si>
   <si>
     <t>修理机工平A</t>
@@ -1517,7 +1474,7 @@
         "attackType":1,
         "attackValue":0.0001,
         "rigidityTime":0.3,
-        "hitPower":"500:0",
+        "hitPower":"400:0",
         "powerType":1,
         "hitEffectAngle":-135,
         "affactedAniNum":1,
@@ -2488,8 +2445,8 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3195,9 +3152,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="244" customHeight="1" spans="1:10">
+    <row r="22" ht="193" customHeight="1" spans="1:10">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3209,17 +3166,17 @@
         <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" ht="129.6" spans="1:7">
+    <row r="23" ht="244" customHeight="1" spans="1:10">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3228,14 +3185,16 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" ht="240" customHeight="1" spans="1:10">
       <c r="A24">
@@ -3248,16 +3207,16 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
         <v>113</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/Skill.xlsx
+++ b/ExcelFiles/Skill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>int</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>monsterAI</t>
   </si>
   <si>
     <t>buffId</t>
@@ -99,10 +102,12 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -164,10 +169,12 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -227,10 +234,12 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-110,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -289,10 +298,12 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -348,12 +359,14 @@
         "attackType":4,
         "attackValue":0.00015,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-90,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.14,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":"5:0",
@@ -413,12 +426,14 @@
         "attackType":1,
         "attackValue":0.00015,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-155,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.14,
-        "shockScreen":"b2t_1",
+        "shockScreen":"bottom_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":"3:0",
@@ -475,10 +490,12 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -493,10 +510,12 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -555,10 +574,12 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -573,10 +594,12 @@
         "attackType":1,
         "attackValue":0.00007,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -632,10 +655,12 @@
         "attackType":1,
         "attackValue":0.0001,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -650,10 +675,12 @@
         "attackType":1,
         "attackValue":0.0001,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -712,12 +739,14 @@
         "attackType":1,
         "attackValue":0.00012,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"5:8",
+        "powerType":2,
+        "knockDown":true,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.08,
-        "shockScreen":"b2t_1",
+        "shockScreen":"bottom_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":null,
@@ -774,12 +803,14 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"0.2:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-80,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":1,
         "flyDistance":0,
@@ -794,12 +825,14 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"0.3:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-90,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":1,
         "flyDistance":0,
@@ -814,12 +847,14 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"0.4:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-105,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":1,
         "flyDistance":0,
@@ -834,12 +869,14 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"0.5:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-90,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":1,
         "flyDistance":0,
@@ -854,12 +891,14 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"0.6:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-105,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":1,
         "flyDistance":0,
@@ -874,12 +913,14 @@
         "attackType":4,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"0.7:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-90,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.04,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":1,
         "flyDistance":0,
@@ -889,15 +930,17 @@
         "oppositeDiremoveSpeed":"-7:0"
     },
     "8":{
-        "stageType":3,
+        "stageType":2,
         "frame":64,
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"6:10",
+        "powerType":1,
+        "knockDown":true,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -956,10 +999,12 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -974,10 +1019,12 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-90,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.06,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -992,12 +1039,14 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-110,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.06,
-        "shockScreen":"r2l_1",
+        "shockScreen":"right_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":"10:0",
@@ -1010,12 +1059,14 @@
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"3:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-90,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.06,
-        "shockScreen":"l2r_1",
+        "shockScreen":"left_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":"7:0",
@@ -1023,15 +1074,17 @@
         "oppositeDiremoveSpeed":"3:0"
     },
     "7":{
-        "stageType":3,
+        "stageType":2,
         "frame":45,
         "attackType":1,
         "attackValue":0.00004,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"8:10",
+        "powerType":2,
+        "knockDown":true,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
         "shockScreen":null,
         "shockScreenTiming":1,
@@ -1086,12 +1139,14 @@
         "attackType":1,
         "attackValue":0,
         "rigidityTime":0,
-        "hitPower":"0:0",
-        "powerType":1,
+        "hitPower":"8:10",
+        "powerType":2,
+        "knockDown":true,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0,
-        "shockScreen":"b2t_2",
+        "shockScreen":"bottom_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":null,
@@ -1168,12 +1223,14 @@
         "attackType":3,
         "attackValue":0.00035,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"2:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.08,
-        "shockScreen":"b2t_1",
+        "shockScreen":"bottom_1",
         "shockScreenTiming":1,
         "effectOrder":2,
         "moveSpeed":"0:0",
@@ -1262,12 +1319,14 @@
         "attackType":3,
         "attackValue":0.00035,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"2:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.08,
-        "shockScreen":"t2b_1",
+        "shockScreen":"top_1",
         "shockScreenTiming":1,
         "effectOrder":2,
         "moveSpeed":"0:0",
@@ -1326,12 +1385,14 @@
         "attackType":3,
         "attackValue":0.00035,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"2:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-45,
-        "affactedAniNum":2,
+        "affectedAniNum":2,
         "freezeTime":0.08,
-        "shockScreen":"t2b_1",
+        "shockScreen":"top_1",
         "shockScreenTiming":1,
         "effectOrder":2,
         "moveSpeed":"0:0",
@@ -1379,42 +1440,185 @@
     <t>{
     "1":{
         "stageType":1,
-        "frame":12,
+        "frame":40,
         "moveSpeed":null,
         "sameDiremoveSpeed":null,
         "oppositeDiremoveSpeed":null
     },
     "2":{
         "stageType":2,
-        "frame":21,
+        "frame":64,
         "attackType":1,
-        "attackValue":2.5,
-        "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "attackValue":0.00035,
+        "rigidityTime":1,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
+        "affectedAniNum":1,
         "freezeTime":0.04,
-        "shockScreen":null,
+        "shockScreen":"rightBottom_1",
         "shockScreenTiming":1,
         "effectOrder":null,
         "moveSpeed":"0:0",
         "sameDiremoveSpeed":"0:0",
-        "oppositeDiremoveSpeed":null
+        "oppositeDiremoveSpeed":"0:0"
     },
     "3":{
-        "stageType":3,
-        "frame":24,
+        "stageType":2,
+        "frame":88,
+        "attackType":1,
+        "attackValue":0.00035,
+        "rigidityTime":1,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-160,
+        "affectedAniNum":1,
+        "freezeTime":0.04,
+        "shockScreen":"bottom_1",
+        "shockScreenTiming":1,
+        "effectOrder":null,
         "moveSpeed":"0:0",
         "sameDiremoveSpeed":"0:0",
-        "oppositeDiremoveSpeed":null
+        "oppositeDiremoveSpeed":"0:0"
     },
     "4":{
-        "stageType":4,
-        "frame":37,
-        "moveSpeed":null,
-        "sameDiremoveSpeed":null,
-        "oppositeDiremoveSpeed":null
+        "stageType":2,
+        "frame":108,
+        "attackType":1,
+        "attackValue":0.00035,
+        "rigidityTime":1,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-45,
+        "affectedAniNum":2,
+        "freezeTime":0.04,
+        "shockScreen":"leftBottom_1",
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
+    },
+    "5":{
+        "stageType":2,
+        "frame":128,
+        "attackType":1,
+        "attackValue":0.00035,
+        "rigidityTime":1,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
+        "hitEffectAngle":15,
+        "affectedAniNum":1,
+        "freezeTime":0.04,
+        "shockScreen":"top_1",
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
+    },
+    "6":{
+        "stageType":2,
+        "frame":148,
+        "attackType":1,
+        "attackValue":0.00035,
+        "rigidityTime":1,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-15,
+        "affectedAniNum":2,
+        "freezeTime":0.04,
+        "shockScreen":"rightTop_1",
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
+    },
+    "7":{
+        "stageType":2,
+        "frame":168,
+        "attackType":1,
+        "attackValue":0.00035,
+        "rigidityTime":1,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-15,
+        "affectedAniNum":2,
+        "freezeTime":0.04,
+        "shockScreen":"rightTop_1",
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
+    },
+    "8":{
+        "stageType":1,
+        "frame":181,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0",
+        "perform":"darkSky"
+    },
+    "9":{
+        "stageType":2,
+        "frame":201,
+        "attackType":1,
+        "attackValue":0.0006,
+        "rigidityTime":2,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":false,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-90,
+        "affectedAniNum":1,
+        "freezeTime":0.06,
+        "shockScreen":"right_1",
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
+    },
+    "10":{
+        "stageType":1,
+        "frame":262,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
+    },
+    "11":{
+        "stageType":2,
+        "frame":287,
+        "attackType":1,
+        "attackValue":0.001,
+        "rigidityTime":1,
+        "hitPower":"8:11",
+        "powerType":2,
+        "knockDown":true,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-45,
+        "affectedAniNum":2,
+        "freezeTime":0.08,
+        "shockScreen":"",
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"0:0",
+        "sameDiremoveSpeed":"0:0",
+        "oppositeDiremoveSpeed":"0:0"
     }
 }</t>
   </si>
@@ -1423,17 +1627,20 @@
     "1":{
         "prefabName":"alpha_USkillScreenSlash",
         "animationName":"USkillScreenSlash",
-        "type":1,
+        "type":5,
         "attackBox":true
     },
     "2":{
         "prefabName":"alpha_USkillSlash",
-        "animationName":"USkillScreenSlash",
+        "animationName":"USkillSlash",
         "type":1
     }
 }</t>
   </si>
   <si>
+    <t>skill_u</t>
+  </si>
+  <si>
     <t>前闪避</t>
   </si>
   <si>
@@ -1443,10 +1650,10 @@
     <t>{
     "1":{
         "stageType":3,
-        "frame":14,
-        "moveSpeed":"25:0",
-        "sameDiremoveSpeed":"25:0",
-        "oppositeDiremoveSpeed":"25:0"
+        "frame":20,
+        "moveSpeed":"17:0",
+        "sameDiremoveSpeed":"17:0",
+        "oppositeDiremoveSpeed":"17:0"
     }
 }</t>
   </si>
@@ -1454,7 +1661,7 @@
     <t>后闪避</t>
   </si>
   <si>
-    <t>修理机工平A</t>
+    <t>修理机工平A_1</t>
   </si>
   <si>
     <t>Attack_1</t>
@@ -1463,22 +1670,24 @@
     <t>{
     "1":{
         "stageType":1,
-        "frame":120,
+        "frame":117,
         "moveSpeed":null,
         "sameDiremoveSpeed":null,
         "oppositeDiremoveSpeed":null
     },
     "2":{
         "stageType":2,
-        "frame":143,
+        "frame":141,
         "attackType":1,
         "attackValue":0.0001,
         "rigidityTime":0.3,
-        "hitPower":"400:0",
-        "powerType":1,
+        "hitPower":"12:10",
+        "powerType":1,
+        "knockDown":true,
+        "hitEffectType":"normal",
         "hitEffectAngle":-135,
-        "affactedAniNum":1,
-        "freezeTime":0.04,
+        "affectedAniNum":1,
+        "freezeTime":0.12,
         "shockScreen":null,
         "shockScreenTiming":1,
         "effectOrder":null,
@@ -1498,10 +1707,471 @@
   <si>
     <t>{
     "1":{
-        "prefabName":"xiulijigong_Attack_1_Slash",
+        "prefabName":"xiulijigong_NormalAttack_Slash",
         "animationName":"Attack_1",
         "type":1,
         "attackBox":true
+    }
+}</t>
+  </si>
+  <si>
+    <t>修理机工快速平A</t>
+  </si>
+  <si>
+    <t>Attack_2</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "stageType":1,
+        "frame":41,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "2":{
+        "stageType":2,
+        "frame":65,
+        "attackType":1,
+        "attackValue":0.0001,
+        "rigidityTime":0.3,
+        "hitPower":"8:8",
+        "powerType":1,
+        "knockDown":true,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-135,
+        "affectedAniNum":1,
+        "freezeTime":0.1,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "3":{
+        "stageType":4,
+        "frame":94,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "prefabName":"xiulijigong_NormalAttack_Slash",
+        "animationName":"Attack_2",
+        "type":1,
+        "attackBox":true
+    }
+}</t>
+  </si>
+  <si>
+    <t>修理机工反击_1</t>
+  </si>
+  <si>
+    <t>CounterAttack_1</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "stageType":1,
+        "frame":8,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "2":{
+        "stageType":2,
+        "frame":24,
+        "attackType":1,
+        "attackValue":0.0001,
+        "rigidityTime":0.3,
+        "hitPower":"12:10",
+        "powerType":1,
+        "knockDown":true,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-135,
+        "affectedAniNum":1,
+        "freezeTime":0.12,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "3":{
+        "stageType":4,
+        "frame":50,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "prefabName":"xiulijigong_NormalAttack_Slash",
+        "animationName":"CounterAttack_1",
+        "type":1,
+        "attackBox":true
+    }
+}</t>
+  </si>
+  <si>
+    <t>修理机工远程_1</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "stageType":1,
+        "frame":117,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "2":{
+        "stageType":2,
+        "frame":141,
+        "attackType":1,
+        "attackValue":0.0001,
+        "rigidityTime":0.3,
+        "hitPower":"8:8",
+        "powerType":1,
+        "knockDown":true,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-135,
+        "affectedAniNum":1,
+        "freezeTime":0.1,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":"30:0",
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "3":{
+        "stageType":4,
+        "frame":175,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "prefabName":"xiulijigong_NormalAttack_Slash",
+        "animationName":"RemoteAttack_1",
+        "type":1,
+        "attackBox":true
+    }
+}</t>
+  </si>
+  <si>
+    <t>impactWave</t>
+  </si>
+  <si>
+    <t>起身冲击波</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "stageType":2,
+        "frame":11,
+        "attackType":4,
+        "attackValue":0,
+        "rigidityTime":0,
+        "hitPower":"12:10",
+        "powerType":2,
+        "knockDown":true,
+        "hitEffectType":"normal",
+        "hitEffectAngle":-135,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "2":{
+        "stageType":4,
+        "frame":13,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "prefabName":"Skill_ImpactWave",
+        "animationName":"Show",
+        "type":4,
+        "attackBox":true
+    }
+}</t>
+  </si>
+  <si>
+    <t>blackHole</t>
+  </si>
+  <si>
+    <t>吞噬黑洞</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "stageType":1,
+        "frame":70,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "2":{
+        "stageType":2,
+        "frame":100,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "3":{
+        "stageType":2,
+        "frame":130,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "4":{
+        "stageType":2,
+        "frame":160,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "5":{
+        "stageType":2,
+        "frame":210,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "6":{
+        "stageType":2,
+        "frame":270,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "7":{
+        "stageType":2,
+        "frame":350,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "8":{
+        "stageType":2,
+        "frame":450,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "9":{
+        "stageType":2,
+        "frame":570,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "10":{
+        "stageType":2,
+        "frame":690,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "11":{
+        "stageType":2,
+        "frame":790,
+        "attackType":6,
+        "attackValue":1500,
+        "rigidityTime":0.6,
+        "hitPower":"0:0",
+        "powerType":1,
+        "knockDown":true,
+        "updatePower":"50:0",
+        "updatePowerType":3,
+        "hitEffectType":"darkAttack",
+        "hitEffectAngle":0,
+        "affectedAniNum":1,
+        "freezeTime":0,
+        "shockScreen":null,
+        "shockScreenTiming":1,
+        "effectOrder":null,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    },
+    "12":{
+        "stageType":4,
+        "frame":930,
+        "moveSpeed":null,
+        "sameDiremoveSpeed":null,
+        "oppositeDiremoveSpeed":null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "prefabName":"Skill_BlackHole",
+        "animationName":"Show",
+        "type":6,
+        "attackBox":true,
+        "updateForceBox":true
     }
 }</t>
   </si>
@@ -2443,25 +3113,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="6.88888888888889" customWidth="1"/>
-    <col min="5" max="5" width="18.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="47.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="18.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="57.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="14.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="13.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="6.88888888888889" customWidth="1"/>
+    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="18.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="47.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="18.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="57.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2472,34 +3143,37 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2536,8 +3210,11 @@
       <c r="L2" t="s">
         <v>15</v>
       </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="100" customHeight="1" spans="1:12">
+    <row r="3" ht="100" customHeight="1" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2546,31 +3223,31 @@
       </c>
       <c r="C3">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
       </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" ht="100" customHeight="1" spans="1:12">
+    <row r="4" ht="100" customHeight="1" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2580,30 +3257,30 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" ht="100" customHeight="1" spans="1:12">
+    <row r="5" ht="100" customHeight="1" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2613,30 +3290,30 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" ht="100" customHeight="1" spans="1:12">
+    <row r="6" ht="100" customHeight="1" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2646,30 +3323,30 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" ht="100" customHeight="1" spans="1:12">
+    <row r="7" ht="100" customHeight="1" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2679,30 +3356,30 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L7" t="s">
         <v>41</v>
       </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" ht="100" customHeight="1" spans="1:12">
+    <row r="8" ht="100" customHeight="1" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2712,30 +3389,30 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" ht="100" customHeight="1" spans="1:12">
+    <row r="9" ht="100" customHeight="1" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2745,30 +3422,30 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" ht="100" customHeight="1" spans="1:12">
+    <row r="10" ht="100" customHeight="1" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2778,30 +3455,30 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>51</v>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" ht="100" customHeight="1" spans="1:12">
+    <row r="11" ht="100" customHeight="1" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2811,30 +3488,30 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="12" ht="100" customHeight="1" spans="1:12">
+    <row r="12" ht="100" customHeight="1" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2844,30 +3521,30 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K12" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="13" ht="100" customHeight="1" spans="1:12">
+    <row r="13" ht="100" customHeight="1" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2877,27 +3554,27 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
       <c r="F13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="14" ht="100" customHeight="1" spans="1:12">
+    <row r="14" ht="100" customHeight="1" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2907,27 +3584,27 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
       <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="15" ht="100" customHeight="1" spans="1:11">
+    <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2937,27 +3614,28 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="16" ht="100" customHeight="1" spans="1:11">
+    <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2967,25 +3645,25 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
       <c r="F16" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
         <v>15</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" t="s">
-        <v>85</v>
+      <c r="K16" s="1"/>
+      <c r="L16" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="17" ht="100" customHeight="1" spans="1:12">
+    <row r="17" ht="100" customHeight="1" spans="1:13">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2995,32 +3673,32 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
       <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17">
         <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="18" ht="110" customHeight="1" spans="1:12">
+    <row r="18" ht="110" customHeight="1" spans="1:13">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3030,32 +3708,32 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18">
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18">
         <v>17</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="19" ht="127" customHeight="1" spans="1:12">
+    <row r="19" ht="127" customHeight="1" spans="1:13">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3065,32 +3743,32 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
       <c r="F19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>98</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19">
         <v>18</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="20" ht="168" customHeight="1" spans="1:12">
+    <row r="20" ht="168" customHeight="1" spans="1:13">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3100,32 +3778,32 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
       <c r="F20" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>102</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="21" ht="193" customHeight="1" spans="1:12">
+    <row r="21" ht="193" customHeight="1" spans="1:13">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3135,24 +3813,27 @@
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
       <c r="F21" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>109</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="22" ht="193" customHeight="1" spans="1:10">
+    <row r="22" ht="193" customHeight="1" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3162,19 +3843,19 @@
       <c r="C22">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
       <c r="F22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
-    <row r="23" ht="244" customHeight="1" spans="1:10">
+    <row r="23" ht="244" customHeight="1" spans="1:11">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3184,19 +3865,19 @@
       <c r="C23">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
       <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
-    <row r="24" ht="240" customHeight="1" spans="1:10">
+    <row r="24" ht="130" customHeight="1" spans="1:11">
       <c r="A24">
         <v>1001</v>
       </c>
@@ -3206,17 +3887,134 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
       <c r="F24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="G24" t="s">
         <v>115</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" ht="96" customHeight="1" spans="1:11">
+      <c r="A25">
+        <v>1002</v>
+      </c>
+      <c r="B25">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" ht="96" customHeight="1" spans="1:11">
+      <c r="A26">
+        <v>1003</v>
+      </c>
+      <c r="B26">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" ht="96" customHeight="1" spans="1:11">
+      <c r="A27">
+        <v>1004</v>
+      </c>
+      <c r="B27">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" ht="96" customHeight="1" spans="1:11">
+      <c r="A28">
+        <v>2001</v>
+      </c>
+      <c r="B28">
+        <v>-101</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" ht="126" customHeight="1" spans="1:11">
+      <c r="A29">
+        <v>2002</v>
+      </c>
+      <c r="B29">
+        <v>-101</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
